--- a/data/long_notes.xlsx
+++ b/data/long_notes.xlsx
@@ -1,37 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliay\OneDrive\Desktop\Andalusia Projects\ClinicalNotes2Features\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4669A8-24D7-49FE-85E1-6B03554E1419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Diet / FeedingNGT feeding as tolerated.Check gastric residuals; if more than 250 mL Formula: FontActiv Diabest.Start at 5 mL/hr.Advance by 5 mL every 4 hours.Target: 20 mL/hr over 20 hours.Water flush: 50 mL every 4 hours.AntibioticsMeropenem 1 g IV every 8 hours. Start date: 03/09/2025, duration 7 days.Vancomycin 750 mg IV every 12 hours. Start date: 03/09/2025, duration 7 days.Acyclovir 500 mg IV every 8 hours. Start date: 03/09/2025, duration 7 days.DVT ProphylaxisVenopress bilaterally only.IV FluidsRinger&amp;rsquo;s lactate IV infusion at 60 mL/hr.Regular MedicationsPantoprazole 40 mg IV once daily.Paracetamol 1 g IV as needed for pain/fever (max 4 g/day; minimum interval 6 hrs).Ondansetron 8 mg IV as needed for vomiting (max 24 mg/day; minimum interval 6 hrs).Movichol sachet once daily via NGT if no stool passed.Levetiracetam 1000 mg IV twice daily.Ipratropium 500 mcg nebulization via ETT every 6 hrs.Rosuvastatin 10 mg PO once daily.Mannitol 20% 100 mL IV TID daily (3 TIMES DAILY)Hypertonic saline 100 mL IV TID daily (3 TIMES DAILY), alternating with mannitolLocal MedicationsBepanthen cream &amp;ndash; apply sufficient amount BID.Chlorhexidine mouthwash every 6 hrs.Miconazole oral gel every 6 hrs.Hyfresh eye drops &amp;ndash; 2 drops bilaterally every 4 hrs.Acyclovir cream &amp;ndash; apply sufficient amount BID.Fucidin cream &amp;ndash; apply sufficient amount BID (including neck BID).Mebo cream &amp;ndash; apply sufficient amount BID.Daktarin cream &amp;ndash; apply sufficient amount to neck BID.Cicadex cream &amp;ndash; apply sufficient amount to neck BID.Diabetic PlanInsulin Sliding Scale Protocol (Human Actrapid)Monitor RBS every 6 hrs.61&amp;ndash;150 mg/dL &amp;rarr; 0 units151&amp;ndash;200 mg/dL &amp;rarr; 3 units201&amp;ndash;250 mg/dL &amp;rarr; 5 units251&amp;ndash;300 mg/dL &amp;rarr; 8 units301&amp;ndash;350 mg/dL &amp;rarr; 10 units351&amp;ndash;400 mg/dL &amp;rarr; 12 units400 mg/dL &amp;rarr; Start IV insulin infusion and notify physician.Other Instructions / Nursing CareMonitor cough reflex hourly.Monitor EVD output: maintain 8&amp;ndash;12 mL/hr, notify physician if outside range.Maintain patient flat, maximum head elevation 30°.Restrain both upper limbs per hospital policy.Reposition patient: semi-right or semi-left only.</t>
+  </si>
+  <si>
+    <t>NO POSTION OF THE PATIENT TILL DOCTOR ORDERCHECK RBS BEFORE MEALS AND GIVE NOVORAPID ACCORDING TO SCLIDING SCALE150-200 4 U 200- 250 6 U 250-300 8 UABOVE 300 START INSULIN NOVORAPID INFUSION 50 IU +50 CC NS WITH RATE 5 C M /HRASPIRIN PROTECT 100 MG OD POPLAVIX 75 MG OD POATOR 40 MG OD POPARACETAMOL 1GM IV EVERY 8 HRSCEPHAZOLIN 1 GM IV EVERY 8 HRS FOR 4 DAYS started CONCOR 2.5 MG BID PO (HOLD IF HR &amp;lt; 60BL/PR &amp;lt; 90/50 )PANTAZOLE 40 MG BID IVLASIX 40 MG TAB OD POALDACTON 100 MG OD POATROVENT 500 MIC + PULMICORT 500 MIC INHALER BIDDISFLATYL 2 TABS PRNTIDZOFRAN 4 MG IV EVERY 8 HRS PRNHEXITOL MOUTH WASH EVERY 8 HRSEPINEPHREN 3 MG /5O MG NS IV RATE 5 ML/HRNOREPINEPHRIN 4 MG /50 MG NS IV RATE 5 ML/HRNITROGLYCIRIN 50 MG / 50 ML NS IV RATE 5 ML/HRPOTASSIUM CHOLORIDE 20 MMOL IN 100 ML NS SLOWLY IV INFUSION OVER ONE / 8HRS PRNHOUR if serum k below 3.5 mmeqMAGNESIUM SULFATE 2 GM IN 100 ML NS SLOWLY IV INFUSION OVER ONE HOUR / 8HRS PRNCALCIUM GLUCONATE 2 GM IN 100 ML NS SLOWLY IV INFUSION OVER ONE HOUR / 8HRS PRN 100ML SODIUM BICARBONATE SLOWLY IV / 8 HRS PRNLASIX 20 MG IV PRN Q 6 HRS ONE VIAL HUMAN ALBUMINE /500ML NSS IV INFUSION RATE 100 ML/HRPROPOFOL 5M/HR IV INFUSIONELASTIC STOCKING AND CHEST BINDER</t>
+  </si>
+  <si>
+    <t>-Meropenem 2grams q8h iv infusion over 3 hours for 10 days SD16/6/2025-start noradrenaline infusion 0.01-1 mcg/kg/min titrate according to blood pressure to keep MAP &amp;gt;65 mmhg- hydrocortisone 50 mg iv every 6 hoursBETADINE SOLUTION TOPICAL BIDPARACETAMOL 1 G IV TID PRN IF FEVER OR PAINCLEXANE 40 MG SC q24h 10 AM 10 PMASPIRIN PROTECT 100mg NGT OD 2 PMRinger SOLUTION 40ml/hour iv infusion- Amiodarone 200MG TID NGT IF HR &amp;gt;70)- Pantoprazole 40mg IV OD BEFORE BREAKFAST- Mebo topical SUFFICINT AMOUNT bid- levetiracetam 1 GM IV BID 10 AM 10 PM- ACC 600MG OD NGT- NEB ATROVENT 500 MCG /6HRS- MW WITH CHLOROHEXIDION SUFFICINT AMOUNT TID- HI FRESH ED 2 DROPS IN EACH EYE /4HRS- Daktarin oral gel sufficient amount TID.- PULMICORT 0.5 MG NEB BID- 5 ML HYPERTONIC SALINE NEBULISATION Q 4 HOURS- REGULAR ETT SUCTIOING Q 2 HOURS AND PRN- BEPANTHENE CREAM SUFFICINT AMOUNT TOPICAL TIDHYALO CREAM SUFFICINT AMOUNT TOPICAL TIDNGT FEEDING PLAN :CHANGE FEEDING TOFontactive diabetes rate of 60 ml/hr over 20 h+ FLUSHING WATER 50MLQ4HRS.</t>
+  </si>
+  <si>
+    <t>STAT MEDICATIONS:200 ML SODIUM BICARB IV STAT3 L NS IV STAT1 GM CALCIUM GLAUCONATE + 100 ML NS IV STAT OVER 20 MIN10 U NOVORAPID + 100 ML D25% IV STATMIDAZOLAM INFUSION 5-8 MG/H, RASS -2FENTANYL INFUSION 50-80 MCG/H, RASS -2TRACHIUM INFUSION 25 MG STAT THEN 25 MG/HSODIUM BICARB INFUSION RATE 20 ML/HSEND LAB AS ORDERED AND SEPTIC SCREENFOR VOCAL CORD ASSESSMENT 24 H AFTER STOPPING TRACHIUMFOR BRONCHOSCOPY AFTER STABILIZATIONFOR DOPPLER LL VENOUSFOR ECHODiet:TPN SMOFKABIVEN TARGET 60ML/HRD.V.T prophylaxis:-ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IV ODAntibioticBACTERIM IV 500 MG (TMP COMPONENT) / 8 H OVER 1 H, FOR 7 DAYS, SD 28/8Tigecycline100 / 12hrsfor 14 days, SD 21/8Ceftazidime - avibactam2.5 gm IV / 8hrsfor 14 days, SD 21/8Aztreonam2gmIV / 8hrs for 14 days, SD 21/8(both to be infused at same time from 2 different lines)Regular Mediction:- ALDACTONE 100MGTAB PER NGT OD, HOLD IF K &amp;gt; 4- Paracetamol 1gm IV / 6hrs- Reparil tab Per OGT TIDLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrsDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- HYFRESH EYR DROS / 4HRS BILAT 2DROPS- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDOPTIDEX ED TID FOR 7 DAYS, SD 30/8HYALO ED TID FOR 30 DSYS, SD 30/8</t>
+  </si>
+  <si>
+    <t>SEND VBG1 PRBC TO BE GIVEN OVER HD SESSION AS PROTOCOL2 BLOOD CULTURES DIFFERENT SITES Q 48HRSFOR DRAINAING 500 ML FROM PLEURAL DRAIN / 12 HNOREPINEPHRINE 0.02-2 MCG/KG/MIN IVI (TARGET MAP 65)HYDROCORTISONE 50 MG IV / 6 HAntibiotics :( PLEASE use the least accepted volume for dilution)AS PER ID:- EXTENDCeftazidime - avibactam1.25gm IV / 8hrsfor 21 days, SD 10/9- EXTEND TYGACYCLIN 100 MG IV BID FOR 14 DAYS, SD 15/9- Anidulafungin 100mg IV / 24hrs for 14 days FROM 1ST - VE BLOOD CS(END DTAE TO BE DICIDED AS PER C/S RESULT )- LIPOSOMAL AMPHOTERICIN B 500 MG IV OD OVER 2 HOURS INFUSION FOR AT LEAST 2 WEEKS FROM NGEGATVE BLOOD CULTURE FOR CANDIDEMIA (SD 16/9)IV infusions- sodium bicarbonate 50 ML IVI Q 8 H if hco3 &amp;lt; 18Regular Mediction:- HEPAFORM 150mg per NGT /8hrs- Ursolfalk 500 cap per NGT TIDLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrs- REPARIL gel sufficient amount QID- ZYmagel sufficient amount QIDDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDDiet:ENTARAL FEEDING:NEPRO HP@5ML/HR AND INCREASE GRADUALLY AS PT TOLERANCE TILL REACH THE GOAL RATE 30ML /HRD.V.T prophylaxis:HOLD ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IVBIDOPHTALMOLOGY MEDICATIONS:- HYFRESH EYE DROP Q1HR BOTH EYES- RECUGEL EYE GEL INSIDE BOTH EYES Q12HRS. ENSURE GOOD LID CLOSURE IN BOTH EYES ALL OVER THE DAY/NIGHT TO DECREASE RISK OF CORNEAL ULCER.</t>
+  </si>
+  <si>
+    <t>send serum k/mgSTART NGT FEEDING AT 12 MINIGHTPOST OR/SURGICAL TRACHEOSTOMYHYDROCORTISON 50 MG IV Q8 H for 5 day then 50 mg iv bid for 5 day then 25 mg iv bid for 5 day then 25 mg iv od for 3 day then stopHEPARIN 5000 UNIT IV Q 6 H SCASPRINE 100 MG NGT Q24HR START TOMORROWPLAVIX 75 MG NGT Q24HRBISOPROLOL 1.25 MG TAB PO Q24HRPANTAZOL 40 MG IV Q24HRSC HUMAN ACTRARAPID INSULIN SLIDING SCALE PROTOCOL RBS Q4HRSBLOOD GLUCOSE (MG/DL)        INSULIN (UNITS)61-150                   0151-200                         3201-250                         5251-300                         8301-350                         10351-400                         12&amp;gt;400   START INFUSION, PHYSICIAN SHOULD BE CONTACTED.ACETYLCIESTAIN 600 MG NGT Q12HRSFLEET ENEM OD IF BM NEGATIVELACTULOSE 15 ML OD /OGTPROPER CHEST SUCTIONMICONAZOLE ORAL GEL TOPICAL Q8HRCHLORHEXIDINE MOUTHWASH Q6HRSOPTIFRESH EYE DROPS 2 DROPS EACH EYE Q6HRB-SITOSTEROL SUFFICIENT AMOUNT TOPICAL Q8HRSAESCIN 1%/ DIETHYLAMINE SALICYLATE 5% GEL SUFFICIENT AMOUNT TOPICAL Q8HRNGT FEEDINGFONT ACTIVE DIABEST RATE 60 ML / HRS / 20 HRSWATER FLUSH 100 ML Q4HRS</t>
+  </si>
+  <si>
+    <t>TAZOCIN 3.375 MG IV Q 6 H FOR 7 DAYS (SD 7/8/2025)allervin one tab through ngt 4 mg BIDLASIX 40mg bid ivEbixa (Memantine) 10 mg tab: Administer once daily (OD) via NGT.Risperdal (Risperidone) 1 mg/mL syrup: Administer 0.5 mL OD via NGT.Vortioxetine 10 mg: Administer OD via NGT.Pantoprazole 40 mg IV: Administer OD.Clexane (Enoxaparin) 40 mg SC: Administer every 24 hours (Q24H).Atrovent (Ipratropium) 500 mcg neb: Administer every 8 hours (Q8H).Pulmicort (Budesonide) 500 mcg neb: Administer every 12 hours (Q12H).Acetylcysteine 200 mg via NGT: Administer every 8 hours (Q8H).Perfalgan (Paracetamol) 1 g IV: Administer every 8 hours (Q8H) as needed (PRN) for pain or fever.Bisoprolol 5 mg via NGT: Administer OD; hold if BP &amp;lt; 120/80 mmHg or HR &amp;lt; 70 bpm.Aranesp (Darbepoetin Alfa) 40 mcg SC: Administer once weekly.Biocal D via NGT: Administer every 12 hours (Q12H).Bepanthen cream: Apply sufficient amount three times daily (TID).Mebo ointment: Apply sufficient amount twice daily (BID).Lipobase cream: Apply sufficient amount BID.Reparil gel: Apply sufficient amount BID.Miconazole oral gel: Apply sufficient amount every 8 hours (Q8H).Actrapid insulin sliding scale SC: Administer based on random blood glucose (RBG) every 6 hours (Q6H):RBG 150&amp;ndash;200 mg/dL: 3 unitsRBG 201&amp;ndash;250 mg/dL: 5 unitsRBG 251&amp;ndash;300 mg/dL: 10 unitsRBG 301&amp;ndash;350 mg/dL: 15 unitsRBG 351&amp;ndash;400 mg/dL: 20 unitsRBG &amp;gt; 400 mg/dL: Start insulin infusion as per protocol and inform physician</t>
+  </si>
+  <si>
+    <t>RINGER LACTATE IV INFUSION 40 ML\HOURPIPRACILLIN TAZOBACTAM 4.5GM IVI Q6HRS 7 DAYS 8/6LEVITRACETAM 1.5 GM IV q12hrACETYLSALICYLIC ACID 100 MG NGT q24hrCLOPIDOGRIL 75 MG NGT q24CLEXAN 40MG SC Q24HRSCRESTOR 10MG NGT Q24HRSAMLOR 10 mg NGT q24hr (KEEP MAP 75-85)PANTOPRAZOLE 40 MG IV q24hrPARACETAMOL 1GM IV Q8HR PRN IF PAIN OR FEVERONDANSETRON 8MG IV PRN IF NAUSEA OR VOMITING Q8HRATROVENT 500MCG NEB Q12HRSPANTHINOL CREAM TOPICAL Q12HRS SUFFECIENT AMOUNT ( ADD LIBOBASE CREAMTOPICAL Q12HRS SUFFECIENT AMOUNT IF PANTHINOL NOT AVILABLE )MICONAZOLE ORAL GEL TOPICAL Q8HRCHLORHEXIDINE MOUTHWASH Q6HRSOPTIFRESH EYE DROPS 2 DROPS EACH EYE Q6HRMEBO CREAM Q12HR TOPICAL SUFFICIENT AMOUNT---------------------------------------------------------------------HUMAN ACTRARAPID INSULIN SLIDING SCALE PROTOCOL RBS Q6HRSBLOOD GLUCOSE (MG/DL) INSULIN (UNITS)61-150  0151-200  3201-250  5251-300  8301-350  10351-400  12&amp;gt;400 START INFUSION, PHYSICIAN SHOULD BE CONTACTED.-----------------------------------------------NGT FEEDING PLAN:Fontactive diabest Continue in increase the rate by 10 ml Q 4hrs as tolerated till reach the goal rate of @ 75ml/hr+ Add beneprotein 3 scoops BIDWater flushing: 100 ml Q4hrs----------------------------------------------PHYSIOTHERAPY BIDRBS/6HRS</t>
+  </si>
+  <si>
+    <t>Recurrent hypokalemia WITH ONGOING CORRECTIONRECURRUent attacks of congestion up to requiring BIPAPVOMITING --&amp;gt;&amp;gt; FEEDING WAS HELDSLEEPY--&amp;gt;&amp;gt; F.U CT BRAIN WAS DONERELOADING LEVITRACETAM 2 G &amp;amp; DOSE UPGRADED TO 1G/12 HRSRECURRENT Hypokalemia WITH ONGOING correcteduncontroled HTn started on va lsartansepis evoving last CRP 84 --&amp;gt;&amp;gt; 66F.U CXR WAS DONERECURRENT ATTACKS OF FEVER CIPRO + LINOZOLID WAS GIVENINF.MARKERES STILL ELEVATED CRP:146 --&amp;gt;&amp;gt; 71.9 --&amp;gt;&amp;gt; 160.9 &amp;gt;&amp;gt;131--&amp;gt;&amp;gt; 84 --&amp;gt;&amp;gt;66 PCT:0.16SPUTUM C/S DONE KLEBSIELLA PNEUMO.SSP PNEUMONIAE &amp;amp; PSEUDOMONAS AERUGINOSAID CONSULTATION WAS DONE AND RECOMMENDED:Since aspiration pneumonia is mild and the patient doesn't require oxygen most of the time, there is a big chance that the cultures are colonization/contamination D/C all current antibiotics and start the patient on Ceftazidime/Avibactam + Aztreonam for 5 days onlyCEFTAZEDIME /AVIBACTAM + AZTREOnam ongoing ( EXTENDED TO 14 DAYS )patient was desaturatedoxygen support via nasal canula was startedcxr was doneHYDROCORTISONE AND ATROVENT WERE GIVENMRI: acute ischemic stroke with chronic ischemic changes.Diagnosed with stroke (post-TPA), severe sepsis (diabetic foot UTI), upper GI bleed, and severe anemia.Post-right above knee amputation. Ongoing treatment in Neuro ICU for neuro and hemodynamic monitoring. Elevated infection markers, NGT feeding, and electrolyte correction. Plans include phantom limb management and continued post-op care.VITALS : BP 150/70   HR 98   RR 19    TEMP 37</t>
+  </si>
+  <si>
+    <t>Antibiotics :( PLEASE use the least accepted volume for dilution)BACTERIM IV 500 MG (TMP COMPONENT) / 8 H OVER 1 H ( ON CRRT ) , FOR10 DAYS, SD 28/8Tigecycline100 / 12hrsfor21 days,SD 21/8Teicoplanin 800mg IV / 24hrs ( ON CRRT) for 14 days, SD 1/9 , ( 800MG / 72HRS IF CRRT stoppped)Vabomere 2gm IV / 8hrs ( on CRRT ) for 14 days, SD 4/9 &amp;gt;&amp;gt;&amp;gt; if off CRRT ( 1gm / 12hr)STOP DIFULCAN ( impaired liver profile)- anidulafungin 200 mg IV stat , then 100mg IV / 24hrs for 14 days, SD 4/9IV infusionsEpinephrine IV infusion 0.05 - 1ug /kg/ min &amp;gt;&amp;gt; monitor HR if &amp;gt; 100 inform doctorLEVOPHIDE IV INFUSION 0.01-1MCG/KG/MIN, RESUME IF BL PR &amp;lt; 90 /60HYDROSORTISONE 50 MG / 6 H IVFENTANYL INFUSION 50-100 MCG/H, RASS -2 &amp;gt;&amp;gt; do sedation vacation as doctor orderAlbumin 20% 50ml / 12hrs IV OVER 2HRSfurosemide IV infusion when dialysis off ( rate 10 -40 mg /hr &amp;gt;target fluid balance to be zero balance/ positive 500/ 24hrs)Regular Mediction:- Silymarin 140mg per NGT /8hrs- Reparil tab Per OGT TID-TWO AMPOULES Calcium gluconateIV infusion over 1hr 10% 1GM/ 6hrsLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrsDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- HYFRESH EYR DROPS / 4HRS BILAT 2DROPS- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDOPTIDEX ED TID FOR 7 DAYS, SD 30/8HYALO ED TID FOR 30 DSYS, SD 30/8Diet:RESUMETPN SMOFKABIVEN TARGET 30ML/HRMODIFY aminoven 10% 20ml /hrSTOP D 25% D.V.T prophylaxis:HOLD ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IVBID</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +95,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,94 +419,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Diet / FeedingNGT feeding as tolerated.Check gastric residuals; if more than 250 mL Formula: FontActiv Diabest.Start at 5 mL/hr.Advance by 5 mL every 4 hours.Target: 20 mL/hr over 20 hours.Water flush: 50 mL every 4 hours.AntibioticsMeropenem 1 g IV every 8 hours. Start date: 03/09/2025, duration 7 days.Vancomycin 750 mg IV every 12 hours. Start date: 03/09/2025, duration 7 days.Acyclovir 500 mg IV every 8 hours. Start date: 03/09/2025, duration 7 days.DVT ProphylaxisVenopress bilaterally only.IV FluidsRinger&amp;rsquo;s lactate IV infusion at 60 mL/hr.Regular MedicationsPantoprazole 40 mg IV once daily.Paracetamol 1 g IV as needed for pain/fever (max 4 g/day; minimum interval 6 hrs).Ondansetron 8 mg IV as needed for vomiting (max 24 mg/day; minimum interval 6 hrs).Movichol sachet once daily via NGT if no stool passed.Levetiracetam 1000 mg IV twice daily.Ipratropium 500 mcg nebulization via ETT every 6 hrs.Rosuvastatin 10 mg PO once daily.Mannitol 20% 100 mL IV TID daily (3 TIMES DAILY)Hypertonic saline 100 mL IV TID daily (3 TIMES DAILY), alternating with mannitolLocal MedicationsBepanthen cream &amp;ndash; apply sufficient amount BID.Chlorhexidine mouthwash every 6 hrs.Miconazole oral gel every 6 hrs.Hyfresh eye drops &amp;ndash; 2 drops bilaterally every 4 hrs.Acyclovir cream &amp;ndash; apply sufficient amount BID.Fucidin cream &amp;ndash; apply sufficient amount BID (including neck BID).Mebo cream &amp;ndash; apply sufficient amount BID.Daktarin cream &amp;ndash; apply sufficient amount to neck BID.Cicadex cream &amp;ndash; apply sufficient amount to neck BID.Diabetic PlanInsulin Sliding Scale Protocol (Human Actrapid)Monitor RBS every 6 hrs.61&amp;ndash;150 mg/dL &amp;rarr; 0 units151&amp;ndash;200 mg/dL &amp;rarr; 3 units201&amp;ndash;250 mg/dL &amp;rarr; 5 units251&amp;ndash;300 mg/dL &amp;rarr; 8 units301&amp;ndash;350 mg/dL &amp;rarr; 10 units351&amp;ndash;400 mg/dL &amp;rarr; 12 units400 mg/dL &amp;rarr; Start IV insulin infusion and notify physician.Other Instructions / Nursing CareMonitor cough reflex hourly.Monitor EVD output: maintain 8&amp;ndash;12 mL/hr, notify physician if outside range.Maintain patient flat, maximum head elevation 30°.Restrain both upper limbs per hospital policy.Reposition patient: semi-right or semi-left only.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NO POSTION OF THE PATIENT TILL DOCTOR ORDERCHECK RBS BEFORE MEALS AND GIVE NOVORAPID ACCORDING TO SCLIDING SCALE150-200 4 U 200- 250 6 U 250-300 8 UABOVE 300 START INSULIN NOVORAPID INFUSION 50 IU +50 CC NS WITH RATE 5 C M /HRASPIRIN PROTECT 100 MG OD POPLAVIX 75 MG OD POATOR 40 MG OD POPARACETAMOL 1GM IV EVERY 8 HRSCEPHAZOLIN 1 GM IV EVERY 8 HRS FOR 4 DAYS started CONCOR 2.5 MG BID PO (HOLD IF HR &amp;lt; 60BL/PR &amp;lt; 90/50 )PANTAZOLE 40 MG BID IVLASIX 40 MG TAB OD POALDACTON 100 MG OD POATROVENT 500 MIC + PULMICORT 500 MIC INHALER BIDDISFLATYL 2 TABS PRNTIDZOFRAN 4 MG IV EVERY 8 HRS PRNHEXITOL MOUTH WASH EVERY 8 HRSEPINEPHREN 3 MG /5O MG NS IV RATE 5 ML/HRNOREPINEPHRIN 4 MG /50 MG NS IV RATE 5 ML/HRNITROGLYCIRIN 50 MG / 50 ML NS IV RATE 5 ML/HRPOTASSIUM CHOLORIDE 20 MMOL IN 100 ML NS SLOWLY IV INFUSION OVER ONE / 8HRS PRNHOUR if serum k below 3.5 mmeqMAGNESIUM SULFATE 2 GM IN 100 ML NS SLOWLY IV INFUSION OVER ONE HOUR / 8HRS PRNCALCIUM GLUCONATE 2 GM IN 100 ML NS SLOWLY IV INFUSION OVER ONE HOUR / 8HRS PRN 100ML SODIUM BICARBONATE SLOWLY IV / 8 HRS PRNLASIX 20 MG IV PRN Q 6 HRS ONE VIAL HUMAN ALBUMINE /500ML NSS IV INFUSION RATE 100 ML/HRPROPOFOL 5M/HR IV INFUSIONELASTIC STOCKING AND CHEST BINDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>-Meropenem 2grams q8h iv infusion over 3 hours for 10 days SD16/6/2025-start noradrenaline infusion 0.01-1 mcg/kg/min titrate according to blood pressure to keep MAP &amp;gt;65 mmhg- hydrocortisone 50 mg iv every 6 hoursBETADINE SOLUTION TOPICAL BIDPARACETAMOL 1 G IV TID PRN IF FEVER OR PAINCLEXANE 40 MG SC q24h 10 AM 10 PMASPIRIN PROTECT 100mg NGT OD 2 PMRinger SOLUTION 40ml/hour iv infusion- Amiodarone 200MG TID NGT IF HR &amp;gt;70)- Pantoprazole 40mg IV OD BEFORE BREAKFAST- Mebo topical SUFFICINT AMOUNT bid- levetiracetam 1 GM IV BID 10 AM 10 PM- ACC 600MG OD NGT- NEB ATROVENT 500 MCG /6HRS- MW WITH CHLOROHEXIDION SUFFICINT AMOUNT TID- HI FRESH ED 2 DROPS IN EACH EYE /4HRS- Daktarin oral gel sufficient amount TID.- PULMICORT 0.5 MG NEB BID- 5 ML HYPERTONIC SALINE NEBULISATION Q 4 HOURS- REGULAR ETT SUCTIOING Q 2 HOURS AND PRN- BEPANTHENE CREAM SUFFICINT AMOUNT TOPICAL TIDHYALO CREAM SUFFICINT AMOUNT TOPICAL TIDNGT FEEDING PLAN :CHANGE FEEDING TOFontactive diabetes rate of 60 ml/hr over 20 h+ FLUSHING WATER 50MLQ4HRS.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>STAT MEDICATIONS:200 ML SODIUM BICARB IV STAT3 L NS IV STAT1 GM CALCIUM GLAUCONATE + 100 ML NS IV STAT OVER 20 MIN10 U NOVORAPID + 100 ML D25% IV STATMIDAZOLAM INFUSION 5-8 MG/H, RASS -2FENTANYL INFUSION 50-80 MCG/H, RASS -2TRACHIUM INFUSION 25 MG STAT THEN 25 MG/HSODIUM BICARB INFUSION RATE 20 ML/HSEND LAB AS ORDERED AND SEPTIC SCREENFOR VOCAL CORD ASSESSMENT 24 H AFTER STOPPING TRACHIUMFOR BRONCHOSCOPY AFTER STABILIZATIONFOR DOPPLER LL VENOUSFOR ECHODiet:TPN SMOFKABIVEN TARGET 60ML/HRD.V.T prophylaxis:-ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IV ODAntibioticBACTERIM IV 500 MG (TMP COMPONENT) / 8 H OVER 1 H, FOR 7 DAYS, SD 28/8Tigecycline100 / 12hrsfor 14 days, SD 21/8Ceftazidime - avibactam2.5 gm IV / 8hrsfor 14 days, SD 21/8Aztreonam2gmIV / 8hrs for 14 days, SD 21/8(both to be infused at same time from 2 different lines)Regular Mediction:- ALDACTONE 100MGTAB PER NGT OD, HOLD IF K &amp;gt; 4- Paracetamol 1gm IV / 6hrs- Reparil tab Per OGT TIDLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrsDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- HYFRESH EYR DROS / 4HRS BILAT 2DROPS- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDOPTIDEX ED TID FOR 7 DAYS, SD 30/8HYALO ED TID FOR 30 DSYS, SD 30/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SEND VBG1 PRBC TO BE GIVEN OVER HD SESSION AS PROTOCOL2 BLOOD CULTURES DIFFERENT SITES Q 48HRSFOR DRAINAING 500 ML FROM PLEURAL DRAIN / 12 HNOREPINEPHRINE 0.02-2 MCG/KG/MIN IVI (TARGET MAP 65)HYDROCORTISONE 50 MG IV / 6 HAntibiotics :( PLEASE use the least accepted volume for dilution)AS PER ID:- EXTENDCeftazidime - avibactam1.25gm IV / 8hrsfor 21 days, SD 10/9- EXTEND TYGACYCLIN 100 MG IV BID FOR 14 DAYS, SD 15/9- Anidulafungin 100mg IV / 24hrs for 14 days FROM 1ST - VE BLOOD CS(END DTAE TO BE DICIDED AS PER C/S RESULT )- LIPOSOMAL AMPHOTERICIN B 500 MG IV OD OVER 2 HOURS INFUSION FOR AT LEAST 2 WEEKS FROM NGEGATVE BLOOD CULTURE FOR CANDIDEMIA (SD 16/9)IV infusions- sodium bicarbonate 50 ML IVI Q 8 H if hco3 &amp;lt; 18Regular Mediction:- HEPAFORM 150mg per NGT /8hrs- Ursolfalk 500 cap per NGT TIDLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrs- REPARIL gel sufficient amount QID- ZYmagel sufficient amount QIDDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDDiet:ENTARAL FEEDING:NEPRO HP@5ML/HR AND INCREASE GRADUALLY AS PT TOLERANCE TILL REACH THE GOAL RATE 30ML /HRD.V.T prophylaxis:HOLD ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IVBIDOPHTALMOLOGY MEDICATIONS:- HYFRESH EYE DROP Q1HR BOTH EYES- RECUGEL EYE GEL INSIDE BOTH EYES Q12HRS. ENSURE GOOD LID CLOSURE IN BOTH EYES ALL OVER THE DAY/NIGHT TO DECREASE RISK OF CORNEAL ULCER.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>send serum k/mgSTART NGT FEEDING AT 12 MINIGHTPOST OR/SURGICAL TRACHEOSTOMYHYDROCORTISON 50 MG IV Q8 H for 5 day then 50 mg iv bid for 5 day then 25 mg iv bid for 5 day then 25 mg iv od for 3 day then stopHEPARIN 5000 UNIT IV Q 6 H SCASPRINE 100 MG NGT Q24HR START TOMORROWPLAVIX 75 MG NGT Q24HRBISOPROLOL 1.25 MG TAB PO Q24HRPANTAZOL 40 MG IV Q24HRSC HUMAN ACTRARAPID INSULIN SLIDING SCALE PROTOCOL RBS Q4HRSBLOOD GLUCOSE (MG/DL)        INSULIN (UNITS)61-150                   0151-200                         3201-250                         5251-300                         8301-350                         10351-400                         12&amp;gt;400   START INFUSION, PHYSICIAN SHOULD BE CONTACTED.ACETYLCIESTAIN 600 MG NGT Q12HRSFLEET ENEM OD IF BM NEGATIVELACTULOSE 15 ML OD /OGTPROPER CHEST SUCTIONMICONAZOLE ORAL GEL TOPICAL Q8HRCHLORHEXIDINE MOUTHWASH Q6HRSOPTIFRESH EYE DROPS 2 DROPS EACH EYE Q6HRB-SITOSTEROL SUFFICIENT AMOUNT TOPICAL Q8HRSAESCIN 1%/ DIETHYLAMINE SALICYLATE 5% GEL SUFFICIENT AMOUNT TOPICAL Q8HRNGT FEEDINGFONT ACTIVE DIABEST RATE 60 ML / HRS / 20 HRSWATER FLUSH 100 ML Q4HRS</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TAZOCIN 3.375 MG IV Q 6 H FOR 7 DAYS (SD 7/8/2025)allervin one tab through ngt 4 mg BIDLASIX 40mg bid ivEbixa (Memantine) 10 mg tab: Administer once daily (OD) via NGT.Risperdal (Risperidone) 1 mg/mL syrup: Administer 0.5 mL OD via NGT.Vortioxetine 10 mg: Administer OD via NGT.Pantoprazole 40 mg IV: Administer OD.Clexane (Enoxaparin) 40 mg SC: Administer every 24 hours (Q24H).Atrovent (Ipratropium) 500 mcg neb: Administer every 8 hours (Q8H).Pulmicort (Budesonide) 500 mcg neb: Administer every 12 hours (Q12H).Acetylcysteine 200 mg via NGT: Administer every 8 hours (Q8H).Perfalgan (Paracetamol) 1 g IV: Administer every 8 hours (Q8H) as needed (PRN) for pain or fever.Bisoprolol 5 mg via NGT: Administer OD; hold if BP &amp;lt; 120/80 mmHg or HR &amp;lt; 70 bpm.Aranesp (Darbepoetin Alfa) 40 mcg SC: Administer once weekly.Biocal D via NGT: Administer every 12 hours (Q12H).Bepanthen cream: Apply sufficient amount three times daily (TID).Mebo ointment: Apply sufficient amount twice daily (BID).Lipobase cream: Apply sufficient amount BID.Reparil gel: Apply sufficient amount BID.Miconazole oral gel: Apply sufficient amount every 8 hours (Q8H).Actrapid insulin sliding scale SC: Administer based on random blood glucose (RBG) every 6 hours (Q6H):RBG 150&amp;ndash;200 mg/dL: 3 unitsRBG 201&amp;ndash;250 mg/dL: 5 unitsRBG 251&amp;ndash;300 mg/dL: 10 unitsRBG 301&amp;ndash;350 mg/dL: 15 unitsRBG 351&amp;ndash;400 mg/dL: 20 unitsRBG &amp;gt; 400 mg/dL: Start insulin infusion as per protocol and inform physician</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RINGER LACTATE IV INFUSION 40 ML\HOURPIPRACILLIN TAZOBACTAM 4.5GM IVI Q6HRS 7 DAYS 8/6LEVITRACETAM 1.5 GM IV q12hrACETYLSALICYLIC ACID 100 MG NGT q24hrCLOPIDOGRIL 75 MG NGT q24CLEXAN 40MG SC Q24HRSCRESTOR 10MG NGT Q24HRSAMLOR 10 mg NGT q24hr (KEEP MAP 75-85)PANTOPRAZOLE 40 MG IV q24hrPARACETAMOL 1GM IV Q8HR PRN IF PAIN OR FEVERONDANSETRON 8MG IV PRN IF NAUSEA OR VOMITING Q8HRATROVENT 500MCG NEB Q12HRSPANTHINOL CREAM TOPICAL Q12HRS SUFFECIENT AMOUNT ( ADD LIBOBASE CREAMTOPICAL Q12HRS SUFFECIENT AMOUNT IF PANTHINOL NOT AVILABLE )MICONAZOLE ORAL GEL TOPICAL Q8HRCHLORHEXIDINE MOUTHWASH Q6HRSOPTIFRESH EYE DROPS 2 DROPS EACH EYE Q6HRMEBO CREAM Q12HR TOPICAL SUFFICIENT AMOUNT---------------------------------------------------------------------HUMAN ACTRARAPID INSULIN SLIDING SCALE PROTOCOL RBS Q6HRSBLOOD GLUCOSE (MG/DL) INSULIN (UNITS)61-150  0151-200  3201-250  5251-300  8301-350  10351-400  12&amp;gt;400 START INFUSION, PHYSICIAN SHOULD BE CONTACTED.-----------------------------------------------NGT FEEDING PLAN:Fontactive diabest Continue in increase the rate by 10 ml Q 4hrs as tolerated till reach the goal rate of @ 75ml/hr+ Add beneprotein 3 scoops BIDWater flushing: 100 ml Q4hrs----------------------------------------------PHYSIOTHERAPY BIDRBS/6HRS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Recurrent hypokalemia WITH ONGOING CORRECTIONRECURRUent attacks of congestion up to requiring BIPAPVOMITING --&amp;gt;&amp;gt; FEEDING WAS HELDSLEEPY--&amp;gt;&amp;gt; F.U CT BRAIN WAS DONERELOADING LEVITRACETAM 2 G &amp;amp; DOSE UPGRADED TO 1G/12 HRSRECURRENT Hypokalemia WITH ONGOING correcteduncontroled HTn started on va lsartansepis evoving last CRP 84 --&amp;gt;&amp;gt; 66F.U CXR WAS DONERECURRENT ATTACKS OF FEVER CIPRO + LINOZOLID WAS GIVENINF.MARKERES STILL ELEVATED CRP:146 --&amp;gt;&amp;gt; 71.9 --&amp;gt;&amp;gt; 160.9 &amp;gt;&amp;gt;131--&amp;gt;&amp;gt; 84 --&amp;gt;&amp;gt;66 PCT:0.16SPUTUM C/S DONE KLEBSIELLA PNEUMO.SSP PNEUMONIAE &amp;amp; PSEUDOMONAS AERUGINOSAID CONSULTATION WAS DONE AND RECOMMENDED:Since aspiration pneumonia is mild and the patient doesn't require oxygen most of the time, there is a big chance that the cultures are colonization/contamination D/C all current antibiotics and start the patient on Ceftazidime/Avibactam + Aztreonam for 5 days onlyCEFTAZEDIME /AVIBACTAM + AZTREOnam ongoing ( EXTENDED TO 14 DAYS )patient was desaturatedoxygen support via nasal canula was startedcxr was doneHYDROCORTISONE AND ATROVENT WERE GIVENMRI: acute ischemic stroke with chronic ischemic changes.Diagnosed with stroke (post-TPA), severe sepsis (diabetic foot UTI), upper GI bleed, and severe anemia.Post-right above knee amputation. Ongoing treatment in Neuro ICU for neuro and hemodynamic monitoring. Elevated infection markers, NGT feeding, and electrolyte correction. Plans include phantom limb management and continued post-op care.VITALS : BP 150/70   HR 98   RR 19    TEMP 37</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Antibiotics :( PLEASE use the least accepted volume for dilution)BACTERIM IV 500 MG (TMP COMPONENT) / 8 H OVER 1 H ( ON CRRT ) , FOR10 DAYS, SD 28/8Tigecycline100 / 12hrsfor21 days,SD 21/8Teicoplanin 800mg IV / 24hrs ( ON CRRT) for 14 days, SD 1/9 , ( 800MG / 72HRS IF CRRT stoppped)Vabomere 2gm IV / 8hrs ( on CRRT ) for 14 days, SD 4/9 &amp;gt;&amp;gt;&amp;gt; if off CRRT ( 1gm / 12hr)STOP DIFULCAN ( impaired liver profile)- anidulafungin 200 mg IV stat , then 100mg IV / 24hrs for 14 days, SD 4/9IV infusionsEpinephrine IV infusion 0.05 - 1ug /kg/ min &amp;gt;&amp;gt; monitor HR if &amp;gt; 100 inform doctorLEVOPHIDE IV INFUSION 0.01-1MCG/KG/MIN, RESUME IF BL PR &amp;lt; 90 /60HYDROSORTISONE 50 MG / 6 H IVFENTANYL INFUSION 50-100 MCG/H, RASS -2 &amp;gt;&amp;gt; do sedation vacation as doctor orderAlbumin 20% 50ml / 12hrs IV OVER 2HRSfurosemide IV infusion when dialysis off ( rate 10 -40 mg /hr &amp;gt;target fluid balance to be zero balance/ positive 500/ 24hrs)Regular Mediction:- Silymarin 140mg per NGT /8hrs- Reparil tab Per OGT TID-TWO AMPOULES Calcium gluconateIV infusion over 1hr 10% 1GM/ 6hrsLocal MediIcation :- Otrivin adult nasal drops bilaterally / 6hrs , 2drops- Chlorhexidine M.W sufficient amount / 6hrs- Miconazole oral Gel sufficient amount / 6hrsDERMATOLOGY RECOMMENDATIONMIX THE THREE CREAMS AND APPLY SUFFICIENT AMOUNT / 8HRS- FUSIBACT 2% CREAM- LICAN CREAM- BIODERMA CICABIO AR CREAM- wound care team follow up- Betadine cream sufficient amount TID- HYFRESH EYR DROPS / 4HRS BILAT 2DROPS- ACTOLINE SPRAY SUFFICIENT AMOUNT TOPICAL BIDOPTIDEX ED TID FOR 7 DAYS, SD 30/8HYALO ED TID FOR 30 DSYS, SD 30/8Diet:RESUMETPN SMOFKABIVEN TARGET 30ML/HRMODIFY aminoven 10% 20ml /hrSTOP D 25% D.V.T prophylaxis:HOLD ENOXAPARIN 40MG S.C OD ( HOLD IF ANY HB DROP/ BLEEDING / INR&amp;gt;2 / PLAT &amp;lt;50 )Gastric Ulcer Prophylaxis:- PANTOPRAZOLE 40MG IVBID</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
